--- a/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_TRDBAL.xlsx
+++ b/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_TRDBAL.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,7 +418,7 @@
         <v>39583</v>
       </c>
       <c r="B4">
-        <v>-0.04457422898017915</v>
+        <v>0.5511400986501143</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -426,7 +426,7 @@
         <v>39675</v>
       </c>
       <c r="B5">
-        <v>-0.05080439817647642</v>
+        <v>-0.00954355574783676</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -434,7 +434,7 @@
         <v>39767</v>
       </c>
       <c r="B6">
-        <v>-0.06052901654273318</v>
+        <v>-0.2555446171936915</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -442,7 +442,7 @@
         <v>39859</v>
       </c>
       <c r="B7">
-        <v>0.1543254109646204</v>
+        <v>-0.6066619314321233</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -450,7 +450,7 @@
         <v>39948</v>
       </c>
       <c r="B8">
-        <v>0.06950680785193752</v>
+        <v>-0.2442342285147824</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -458,7 +458,7 @@
         <v>40040</v>
       </c>
       <c r="B9">
-        <v>-0.0509953789204512</v>
+        <v>0.02800526388762647</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -466,7 +466,7 @@
         <v>40132</v>
       </c>
       <c r="B10">
-        <v>-0.1549158603858515</v>
+        <v>0.2989632083880984</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -474,7 +474,7 @@
         <v>40224</v>
       </c>
       <c r="B11">
-        <v>-0.05097382177085291</v>
+        <v>0.1898416505639596</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -482,7 +482,7 @@
         <v>40313</v>
       </c>
       <c r="B12">
-        <v>0.01754894364723292</v>
+        <v>1.064747157129269</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -490,7 +490,7 @@
         <v>40405</v>
       </c>
       <c r="B13">
-        <v>0.1254679695395859</v>
+        <v>0.4880328864343323</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -498,7 +498,7 @@
         <v>40497</v>
       </c>
       <c r="B14">
-        <v>0.1134223377380077</v>
+        <v>-0.007236080745368856</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -506,7 +506,7 @@
         <v>40589</v>
       </c>
       <c r="B15">
-        <v>0.1759178937024192</v>
+        <v>0.02799058711211094</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -514,7 +514,7 @@
         <v>40678</v>
       </c>
       <c r="B16">
-        <v>0.1652132346915069</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -522,7 +522,7 @@
         <v>40770</v>
       </c>
       <c r="B17">
-        <v>0.1198349834155632</v>
+        <v>0.05221426964547216</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -530,7 +530,7 @@
         <v>40862</v>
       </c>
       <c r="B18">
-        <v>0.1402734837222156</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -538,7 +538,7 @@
         <v>40954</v>
       </c>
       <c r="B19">
-        <v>0.1</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -546,7 +546,7 @@
         <v>41044</v>
       </c>
       <c r="B20">
-        <v>0.02507719589523449</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -554,7 +554,7 @@
         <v>41136</v>
       </c>
       <c r="B21">
-        <v>0.0589879961961709</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -562,7 +562,7 @@
         <v>41228</v>
       </c>
       <c r="B22">
-        <v>0.03586850329953273</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -570,7 +570,7 @@
         <v>41320</v>
       </c>
       <c r="B23">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -578,7 +578,7 @@
         <v>41409</v>
       </c>
       <c r="B24">
-        <v>-0.09999999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -586,7 +586,7 @@
         <v>41501</v>
       </c>
       <c r="B25">
-        <v>0.007919166537585065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -594,7 +594,7 @@
         <v>41593</v>
       </c>
       <c r="B26">
-        <v>-0.001142224879497111</v>
+        <v>0.2000000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -610,7 +610,7 @@
         <v>41774</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -618,7 +618,7 @@
         <v>41866</v>
       </c>
       <c r="B29">
-        <v>-0.00411440483221992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -626,7 +626,7 @@
         <v>41958</v>
       </c>
       <c r="B30">
-        <v>-0.01322280403366449</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -634,7 +634,7 @@
         <v>42050</v>
       </c>
       <c r="B31">
-        <v>-0.1000000000000001</v>
+        <v>0.09999999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -642,7 +642,7 @@
         <v>42139</v>
       </c>
       <c r="B32">
-        <v>-0.1000000000000001</v>
+        <v>0.2999999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -650,7 +650,7 @@
         <v>42231</v>
       </c>
       <c r="B33">
-        <v>-0.03806149545539017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -658,7 +658,7 @@
         <v>42323</v>
       </c>
       <c r="B34">
-        <v>-0.05597415627301838</v>
+        <v>-0.3040828537337272</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -666,7 +666,7 @@
         <v>42415</v>
       </c>
       <c r="B35">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -674,7 +674,7 @@
         <v>42505</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -682,7 +682,7 @@
         <v>42597</v>
       </c>
       <c r="B37">
-        <v>0.052030371842539</v>
+        <v>0.09999999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -690,7 +690,7 @@
         <v>42689</v>
       </c>
       <c r="B38">
-        <v>0.002523310772044929</v>
+        <v>-0.015690968608089</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -698,7 +698,7 @@
         <v>42781</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>0.05096808056002433</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -706,7 +706,7 @@
         <v>42870</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>0.2151519277310885</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -714,7 +714,7 @@
         <v>42962</v>
       </c>
       <c r="B41">
-        <v>0.01751885518434304</v>
+        <v>0.1068236533051979</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -722,7 +722,7 @@
         <v>43054</v>
       </c>
       <c r="B42">
-        <v>0.02008227882880098</v>
+        <v>0.04431897453975564</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -730,7 +730,7 @@
         <v>43146</v>
       </c>
       <c r="B43">
-        <v>0.02327989630046334</v>
+        <v>0.09123448438175896</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -738,7 +738,7 @@
         <v>43235</v>
       </c>
       <c r="B44">
-        <v>0.02344496900398435</v>
+        <v>-0.2716600973116948</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -746,7 +746,7 @@
         <v>43327</v>
       </c>
       <c r="B45">
-        <v>0.03245728503599371</v>
+        <v>0.228981402283536</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -754,7 +754,7 @@
         <v>43419</v>
       </c>
       <c r="B46">
-        <v>0.01048914795523898</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -762,7 +762,7 @@
         <v>43511</v>
       </c>
       <c r="B47">
-        <v>0.03534911699263182</v>
+        <v>-0.1781284012960198</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -770,7 +770,7 @@
         <v>43600</v>
       </c>
       <c r="B48">
-        <v>0.04014744127553282</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -778,7 +778,7 @@
         <v>43692</v>
       </c>
       <c r="B49">
-        <v>0.04843126713026435</v>
+        <v>0.06505493203313417</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -786,7 +786,7 @@
         <v>43784</v>
       </c>
       <c r="B50">
-        <v>0.02835724284007007</v>
+        <v>0.1023597690241737</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -794,7 +794,7 @@
         <v>43876</v>
       </c>
       <c r="B51">
-        <v>-0.003433134881331623</v>
+        <v>-0.5425305662094128</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -802,7 +802,7 @@
         <v>43966</v>
       </c>
       <c r="B52">
-        <v>-0.001838410295742665</v>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -810,7 +810,7 @@
         <v>44058</v>
       </c>
       <c r="B53">
-        <v>0.0005119656599564815</v>
+        <v>2.03040224812923</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -818,7 +818,7 @@
         <v>44150</v>
       </c>
       <c r="B54">
-        <v>-0.009977258504001996</v>
+        <v>0.4339050167294337</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -826,7 +826,7 @@
         <v>44242</v>
       </c>
       <c r="B55">
-        <v>-0.01721392010446909</v>
+        <v>1.197090680270919</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -834,7 +834,7 @@
         <v>44331</v>
       </c>
       <c r="B56">
-        <v>-0.009941010989604315</v>
+        <v>-0.6441697788099752</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -842,7 +842,7 @@
         <v>44423</v>
       </c>
       <c r="B57">
-        <v>-0.009043683159125515</v>
+        <v>0.4901411037136303</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -850,7 +850,7 @@
         <v>44515</v>
       </c>
       <c r="B58">
-        <v>-0.02448943151210231</v>
+        <v>-0.09098140646410988</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -858,7 +858,7 @@
         <v>44607</v>
       </c>
       <c r="B59">
-        <v>-0.03262007354168989</v>
+        <v>-0.3952916234765647</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -866,7 +866,7 @@
         <v>44696</v>
       </c>
       <c r="B60">
-        <v>-0.03791634434732438</v>
+        <v>-0.2380782088493735</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -874,7 +874,7 @@
         <v>44788</v>
       </c>
       <c r="B61">
-        <v>-0.007767969482481984</v>
+        <v>-0.02511582766690132</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -882,7 +882,7 @@
         <v>44880</v>
       </c>
       <c r="B62">
-        <v>-0.008090642302314599</v>
+        <v>0.6876823391013496</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -890,7 +890,7 @@
         <v>44972</v>
       </c>
       <c r="B63">
-        <v>0.01712819497756507</v>
+        <v>0.3720617293507145</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -898,7 +898,7 @@
         <v>45061</v>
       </c>
       <c r="B64">
-        <v>0.01471174725476715</v>
+        <v>-0.1123255314657629</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -906,7 +906,7 @@
         <v>45153</v>
       </c>
       <c r="B65">
-        <v>0.01477978345504005</v>
+        <v>-0.1387895598915543</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -914,7 +914,7 @@
         <v>45245</v>
       </c>
       <c r="B66">
-        <v>0.01485613646721295</v>
+        <v>0.1213803088128225</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -922,7 +922,7 @@
         <v>45337</v>
       </c>
       <c r="B67">
-        <v>-0.1328506734947441</v>
+        <v>-0.07951810869463416</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -930,7 +930,7 @@
         <v>45427</v>
       </c>
       <c r="B68">
-        <v>-0.1664707148753987</v>
+        <v>0.3863682696630121</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -938,7 +938,7 @@
         <v>45519</v>
       </c>
       <c r="B69">
-        <v>-0.1684586110880257</v>
+        <v>-0.006123215295980228</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -946,7 +946,7 @@
         <v>45611</v>
       </c>
       <c r="B70">
-        <v>-0.1705258633492784</v>
+        <v>0.04342916022020096</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -954,7 +954,7 @@
         <v>45703</v>
       </c>
       <c r="B71">
-        <v>-0.04500250401071754</v>
+        <v>-0.2736421272901388</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -962,7 +962,7 @@
         <v>45792</v>
       </c>
       <c r="B72">
-        <v>-0.04542403605375267</v>
+        <v>-0.1489623566660376</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -970,79 +970,7 @@
         <v>45884</v>
       </c>
       <c r="B73">
-        <v>-0.04638725981378089</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="2">
-        <v>45976</v>
-      </c>
-      <c r="B74">
-        <v>-0.04738098344615582</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="2">
-        <v>46068</v>
-      </c>
-      <c r="B75">
-        <v>-0.03143794270944608</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="2">
-        <v>46157</v>
-      </c>
-      <c r="B76">
-        <v>-0.05137348034012257</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="2">
-        <v>46249</v>
-      </c>
-      <c r="B77">
-        <v>-0.05834206225462621</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="2">
-        <v>46341</v>
-      </c>
-      <c r="B78">
-        <v>-0.05539869747975262</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="2">
-        <v>46433</v>
-      </c>
-      <c r="B79">
-        <v>-0.003272573245561683</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="2">
-        <v>46522</v>
-      </c>
-      <c r="B80">
-        <v>-0.003938665823812776</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="2">
-        <v>46614</v>
-      </c>
-      <c r="B81">
-        <v>-0.02964513896696676</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="2">
-        <v>46706</v>
-      </c>
-      <c r="B82">
-        <v>-0.02966156330908004</v>
+        <v>-0.1051295019602515</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_TRDBAL.xlsx
+++ b/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_TRDBAL.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,159 +399,159 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>39401</v>
+        <v>39400</v>
       </c>
       <c r="B2">
-        <v>-0.1945316142291066</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>39493</v>
+        <v>39583</v>
       </c>
       <c r="B3">
-        <v>0.01036281805721223</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="B4">
-        <v>0.5511400986501143</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>39675</v>
+        <v>39948</v>
       </c>
       <c r="B5">
-        <v>-0.00954355574783676</v>
+        <v>-2.168616218514021</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>39767</v>
+        <v>40130</v>
       </c>
       <c r="B6">
-        <v>-0.2555446171936915</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>39859</v>
+        <v>40310</v>
       </c>
       <c r="B7">
-        <v>-0.6066619314321233</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>39948</v>
+        <v>40494</v>
       </c>
       <c r="B8">
-        <v>-0.2442342285147824</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>40040</v>
+        <v>40676</v>
       </c>
       <c r="B9">
-        <v>0.02800526388762647</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>40132</v>
+        <v>40862</v>
       </c>
       <c r="B10">
-        <v>0.2989632083880984</v>
+        <v>0.09999999999999987</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>40224</v>
+        <v>41044</v>
       </c>
       <c r="B11">
-        <v>0.1898416505639596</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>40313</v>
+        <v>41228</v>
       </c>
       <c r="B12">
-        <v>1.064747157129269</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>40405</v>
+        <v>41409</v>
       </c>
       <c r="B13">
-        <v>0.4880328864343323</v>
+        <v>0.09999999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>40497</v>
+        <v>41592</v>
       </c>
       <c r="B14">
-        <v>-0.007236080745368856</v>
+        <v>0.2999999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>40589</v>
+        <v>41774</v>
       </c>
       <c r="B15">
-        <v>0.02799058711211094</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>40678</v>
+        <v>41957</v>
       </c>
       <c r="B16">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>40770</v>
+        <v>42137</v>
       </c>
       <c r="B17">
-        <v>0.05221426964547216</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>40862</v>
+        <v>42321</v>
       </c>
       <c r="B18">
-        <v>-0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>40954</v>
+        <v>42503</v>
       </c>
       <c r="B19">
-        <v>-0.3</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>41044</v>
+        <v>42689</v>
       </c>
       <c r="B20">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>41136</v>
+        <v>42867</v>
       </c>
       <c r="B21">
         <v>-0.2</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>41228</v>
+        <v>43053</v>
       </c>
       <c r="B22">
         <v>-0.4</v>
@@ -567,191 +567,191 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>41320</v>
+        <v>43145</v>
       </c>
       <c r="B23">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>41409</v>
+        <v>43235</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>41501</v>
+        <v>43326</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>41593</v>
+        <v>43418</v>
       </c>
       <c r="B26">
-        <v>0.2000000000000001</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>41685</v>
+        <v>43510</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>41774</v>
+        <v>43600</v>
       </c>
       <c r="B28">
-        <v>0.09999999999999998</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>41866</v>
+        <v>43691</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>41958</v>
+        <v>43783</v>
       </c>
       <c r="B30">
-        <v>-0.2</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>42050</v>
+        <v>43875</v>
       </c>
       <c r="B31">
-        <v>0.09999999999999998</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>42139</v>
+        <v>43966</v>
       </c>
       <c r="B32">
-        <v>0.2999999999999999</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>42231</v>
+        <v>44068</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>42323</v>
+        <v>44159</v>
       </c>
       <c r="B34">
-        <v>-0.3040828537337272</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>42415</v>
+        <v>44251</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>42505</v>
+        <v>44341</v>
       </c>
       <c r="B36">
-        <v>0.1</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>42597</v>
+        <v>44432</v>
       </c>
       <c r="B37">
-        <v>0.09999999999999998</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>42689</v>
+        <v>44525</v>
       </c>
       <c r="B38">
-        <v>-0.015690968608089</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>42781</v>
+        <v>44617</v>
       </c>
       <c r="B39">
-        <v>0.05096808056002433</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>42870</v>
+        <v>44706</v>
       </c>
       <c r="B40">
-        <v>0.2151519277310885</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>42962</v>
+        <v>44798</v>
       </c>
       <c r="B41">
-        <v>0.1068236533051979</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>43054</v>
+        <v>44890</v>
       </c>
       <c r="B42">
-        <v>0.04431897453975564</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>43146</v>
+        <v>44981</v>
       </c>
       <c r="B43">
-        <v>0.09123448438175896</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>43235</v>
+        <v>45071</v>
       </c>
       <c r="B44">
-        <v>-0.2716600973116948</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>43327</v>
+        <v>45163</v>
       </c>
       <c r="B45">
-        <v>0.228981402283536</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>43419</v>
+        <v>45254</v>
       </c>
       <c r="B46">
         <v>0.2</v>
@@ -759,218 +759,58 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>43511</v>
+        <v>45345</v>
       </c>
       <c r="B47">
-        <v>-0.1781284012960198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>43600</v>
+        <v>45436</v>
       </c>
       <c r="B48">
-        <v>-0.3</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>43692</v>
+        <v>45534</v>
       </c>
       <c r="B49">
-        <v>0.06505493203313417</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>43784</v>
+        <v>45618</v>
       </c>
       <c r="B50">
-        <v>0.1023597690241737</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>43876</v>
+        <v>45713</v>
       </c>
       <c r="B51">
-        <v>-0.5425305662094128</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>43966</v>
+        <v>45800</v>
       </c>
       <c r="B52">
-        <v>-5.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>44058</v>
+        <v>45891</v>
       </c>
       <c r="B53">
-        <v>2.03040224812923</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="2">
-        <v>44150</v>
-      </c>
-      <c r="B54">
-        <v>0.4339050167294337</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="2">
-        <v>44242</v>
-      </c>
-      <c r="B55">
-        <v>1.197090680270919</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="2">
-        <v>44331</v>
-      </c>
-      <c r="B56">
-        <v>-0.6441697788099752</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B57">
-        <v>0.4901411037136303</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="2">
-        <v>44515</v>
-      </c>
-      <c r="B58">
-        <v>-0.09098140646410988</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="2">
-        <v>44607</v>
-      </c>
-      <c r="B59">
-        <v>-0.3952916234765647</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="2">
-        <v>44696</v>
-      </c>
-      <c r="B60">
-        <v>-0.2380782088493735</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="2">
-        <v>44788</v>
-      </c>
-      <c r="B61">
-        <v>-0.02511582766690132</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="2">
-        <v>44880</v>
-      </c>
-      <c r="B62">
-        <v>0.6876823391013496</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="2">
-        <v>44972</v>
-      </c>
-      <c r="B63">
-        <v>0.3720617293507145</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="2">
-        <v>45061</v>
-      </c>
-      <c r="B64">
-        <v>-0.1123255314657629</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="2">
-        <v>45153</v>
-      </c>
-      <c r="B65">
-        <v>-0.1387895598915543</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="2">
-        <v>45245</v>
-      </c>
-      <c r="B66">
-        <v>0.1213803088128225</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="2">
-        <v>45337</v>
-      </c>
-      <c r="B67">
-        <v>-0.07951810869463416</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="2">
-        <v>45427</v>
-      </c>
-      <c r="B68">
-        <v>0.3863682696630121</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="2">
-        <v>45519</v>
-      </c>
-      <c r="B69">
-        <v>-0.006123215295980228</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="2">
-        <v>45611</v>
-      </c>
-      <c r="B70">
-        <v>0.04342916022020096</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="2">
-        <v>45703</v>
-      </c>
-      <c r="B71">
-        <v>-0.2736421272901388</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="2">
-        <v>45792</v>
-      </c>
-      <c r="B72">
-        <v>-0.1489623566660376</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="2">
-        <v>45884</v>
-      </c>
-      <c r="B73">
-        <v>-0.1051295019602515</v>
+        <v>-0.7</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_TRDBAL.xlsx
+++ b/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_TRDBAL.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>value</t>
+    <t>first_release_value</t>
   </si>
   <si>
     <t>date</t>
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,418 +399,666 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>39400</v>
+        <v>38398</v>
       </c>
       <c r="B2">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>39583</v>
+        <v>38487</v>
       </c>
       <c r="B3">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>39765</v>
+        <v>38579</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0.09999999999999987</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>39948</v>
+        <v>38671</v>
       </c>
       <c r="B5">
-        <v>-2.168616218514021</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>40130</v>
+        <v>38763</v>
       </c>
       <c r="B6">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>40310</v>
+        <v>38852</v>
       </c>
       <c r="B7">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>40494</v>
+        <v>38944</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>40676</v>
+        <v>39036</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>40862</v>
+        <v>39128</v>
       </c>
       <c r="B10">
-        <v>0.09999999999999987</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>41044</v>
+        <v>39217</v>
       </c>
       <c r="B11">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>41228</v>
+        <v>39309</v>
       </c>
       <c r="B12">
-        <v>0.3</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>41409</v>
+        <v>39401</v>
       </c>
       <c r="B13">
-        <v>0.09999999999999998</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>41592</v>
+        <v>39493</v>
       </c>
       <c r="B14">
-        <v>0.2999999999999999</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>41774</v>
+        <v>39583</v>
       </c>
       <c r="B15">
-        <v>-0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>41957</v>
+        <v>39675</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>42137</v>
+        <v>39767</v>
       </c>
       <c r="B17">
-        <v>-0.3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>42321</v>
+        <v>39859</v>
       </c>
       <c r="B18">
-        <v>0.6</v>
+        <v>-2.168616218514021</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>42503</v>
+        <v>39948</v>
       </c>
       <c r="B19">
-        <v>-0.5</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>42689</v>
+        <v>40040</v>
       </c>
       <c r="B20">
-        <v>-0.3</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>42867</v>
+        <v>40132</v>
       </c>
       <c r="B21">
-        <v>-0.2</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>43053</v>
+        <v>40224</v>
       </c>
       <c r="B22">
-        <v>-0.4</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>43145</v>
+        <v>40313</v>
       </c>
       <c r="B23">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>43235</v>
+        <v>40405</v>
       </c>
       <c r="B24">
-        <v>-0.1</v>
+        <v>0.2696221576284057</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>43326</v>
+        <v>40497</v>
       </c>
       <c r="B25">
-        <v>-0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>43418</v>
+        <v>40589</v>
       </c>
       <c r="B26">
-        <v>-0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>43510</v>
+        <v>40678</v>
       </c>
       <c r="B27">
-        <v>-0.9</v>
+        <v>0.1000000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>43600</v>
+        <v>40770</v>
       </c>
       <c r="B28">
-        <v>0.2</v>
+        <v>0.09999999999999987</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>43691</v>
+        <v>40862</v>
       </c>
       <c r="B29">
-        <v>0.5</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>43783</v>
+        <v>40954</v>
       </c>
       <c r="B30">
-        <v>-0.6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>43875</v>
+        <v>41044</v>
       </c>
       <c r="B31">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>43966</v>
+        <v>41136</v>
       </c>
       <c r="B32">
-        <v>-0.8</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>44068</v>
+        <v>41228</v>
       </c>
       <c r="B33">
-        <v>-2.8</v>
+        <v>-0.7000000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>44159</v>
+        <v>41320</v>
       </c>
       <c r="B34">
-        <v>3.9</v>
+        <v>0.09999999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>44251</v>
+        <v>41409</v>
       </c>
       <c r="B35">
-        <v>0.6</v>
+        <v>0.2999999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>44341</v>
+        <v>41501</v>
       </c>
       <c r="B36">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>44432</v>
+        <v>41593</v>
       </c>
       <c r="B37">
-        <v>-0.6</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>44525</v>
+        <v>41685</v>
       </c>
       <c r="B38">
-        <v>-0.2</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>44617</v>
+        <v>41774</v>
       </c>
       <c r="B39">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>44706</v>
+        <v>41866</v>
       </c>
       <c r="B40">
-        <v>-1.4</v>
+        <v>0.2000000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>44798</v>
+        <v>41958</v>
       </c>
       <c r="B41">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>44890</v>
+        <v>42050</v>
       </c>
       <c r="B42">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>44981</v>
+        <v>42139</v>
       </c>
       <c r="B43">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45071</v>
+        <v>42231</v>
       </c>
       <c r="B44">
-        <v>0.7</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45163</v>
+        <v>42323</v>
       </c>
       <c r="B45">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45254</v>
+        <v>42415</v>
       </c>
       <c r="B46">
-        <v>0.2</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45345</v>
+        <v>42505</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45436</v>
+        <v>42597</v>
       </c>
       <c r="B48">
-        <v>0.3</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45534</v>
+        <v>42689</v>
       </c>
       <c r="B49">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45618</v>
+        <v>42781</v>
       </c>
       <c r="B50">
-        <v>-0.9</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45713</v>
+        <v>42870</v>
       </c>
       <c r="B51">
-        <v>-1.2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45800</v>
+        <v>42962</v>
       </c>
       <c r="B52">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45891</v>
+        <v>43054</v>
       </c>
       <c r="B53">
-        <v>-0.7</v>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2">
+        <v>43146</v>
+      </c>
+      <c r="B54">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2">
+        <v>43235</v>
+      </c>
+      <c r="B55">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2">
+        <v>43327</v>
+      </c>
+      <c r="B56">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2">
+        <v>43419</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2">
+        <v>43511</v>
+      </c>
+      <c r="B58">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2">
+        <v>43600</v>
+      </c>
+      <c r="B59">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2">
+        <v>43692</v>
+      </c>
+      <c r="B60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2">
+        <v>43784</v>
+      </c>
+      <c r="B61">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2">
+        <v>43876</v>
+      </c>
+      <c r="B62">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B63">
+        <v>-2.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B64">
+        <v>2.03040224812923</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2">
+        <v>44150</v>
+      </c>
+      <c r="B65">
+        <v>0.4339050167294337</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2">
+        <v>44242</v>
+      </c>
+      <c r="B66">
+        <v>1.197090680270919</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2">
+        <v>44331</v>
+      </c>
+      <c r="B67">
+        <v>-0.6441697788099752</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2">
+        <v>44423</v>
+      </c>
+      <c r="B68">
+        <v>0.4901411037136303</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2">
+        <v>44515</v>
+      </c>
+      <c r="B69">
+        <v>-0.09098140646410988</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2">
+        <v>44607</v>
+      </c>
+      <c r="B70">
+        <v>-0.3952916234765647</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2">
+        <v>44696</v>
+      </c>
+      <c r="B71">
+        <v>-0.2380782088493735</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2">
+        <v>44788</v>
+      </c>
+      <c r="B72">
+        <v>-0.02511582766690132</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2">
+        <v>44880</v>
+      </c>
+      <c r="B73">
+        <v>0.6876823391013496</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2">
+        <v>44972</v>
+      </c>
+      <c r="B74">
+        <v>0.3720617293507145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="2">
+        <v>45061</v>
+      </c>
+      <c r="B75">
+        <v>-0.1123255314657629</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2">
+        <v>45153</v>
+      </c>
+      <c r="B76">
+        <v>-0.1387895598915543</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2">
+        <v>45245</v>
+      </c>
+      <c r="B77">
+        <v>0.1213803088128225</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2">
+        <v>45337</v>
+      </c>
+      <c r="B78">
+        <v>-0.07951810869463416</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2">
+        <v>45427</v>
+      </c>
+      <c r="B79">
+        <v>0.3863682696630121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2">
+        <v>45519</v>
+      </c>
+      <c r="B80">
+        <v>-0.006123215295980228</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="2">
+        <v>45611</v>
+      </c>
+      <c r="B81">
+        <v>0.04342916022020096</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="2">
+        <v>45703</v>
+      </c>
+      <c r="B82">
+        <v>-0.2736421272901388</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="2">
+        <v>45792</v>
+      </c>
+      <c r="B83">
+        <v>-0.1489623566660376</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2">
+        <v>45884</v>
+      </c>
+      <c r="B84">
+        <v>-0.1051295019602515</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_TRDBAL.xlsx
+++ b/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_TRDBAL.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -898,7 +898,7 @@
         <v>44058</v>
       </c>
       <c r="B64">
-        <v>2.03040224812923</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -906,7 +906,7 @@
         <v>44150</v>
       </c>
       <c r="B65">
-        <v>0.4339050167294337</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -914,7 +914,7 @@
         <v>44242</v>
       </c>
       <c r="B66">
-        <v>1.197090680270919</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -922,7 +922,7 @@
         <v>44331</v>
       </c>
       <c r="B67">
-        <v>-0.6441697788099752</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -930,7 +930,7 @@
         <v>44423</v>
       </c>
       <c r="B68">
-        <v>0.4901411037136303</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -938,7 +938,7 @@
         <v>44515</v>
       </c>
       <c r="B69">
-        <v>-0.09098140646410988</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -946,7 +946,7 @@
         <v>44607</v>
       </c>
       <c r="B70">
-        <v>-0.3952916234765647</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -954,7 +954,7 @@
         <v>44696</v>
       </c>
       <c r="B71">
-        <v>-0.2380782088493735</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -962,7 +962,7 @@
         <v>44788</v>
       </c>
       <c r="B72">
-        <v>-0.02511582766690132</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -970,7 +970,7 @@
         <v>44880</v>
       </c>
       <c r="B73">
-        <v>0.6876823391013496</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -978,7 +978,7 @@
         <v>44972</v>
       </c>
       <c r="B74">
-        <v>0.3720617293507145</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -986,7 +986,7 @@
         <v>45061</v>
       </c>
       <c r="B75">
-        <v>-0.1123255314657629</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -994,7 +994,7 @@
         <v>45153</v>
       </c>
       <c r="B76">
-        <v>-0.1387895598915543</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1002,7 +1002,7 @@
         <v>45245</v>
       </c>
       <c r="B77">
-        <v>0.1213803088128225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1010,7 +1010,7 @@
         <v>45337</v>
       </c>
       <c r="B78">
-        <v>-0.07951810869463416</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1018,7 +1018,7 @@
         <v>45427</v>
       </c>
       <c r="B79">
-        <v>0.3863682696630121</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1026,7 +1026,7 @@
         <v>45519</v>
       </c>
       <c r="B80">
-        <v>-0.006123215295980228</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1034,7 +1034,7 @@
         <v>45611</v>
       </c>
       <c r="B81">
-        <v>0.04342916022020096</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1042,7 +1042,7 @@
         <v>45703</v>
       </c>
       <c r="B82">
-        <v>-0.2736421272901388</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1050,15 +1050,7 @@
         <v>45792</v>
       </c>
       <c r="B83">
-        <v>-0.1489623566660376</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="2">
-        <v>45884</v>
-      </c>
-      <c r="B84">
-        <v>-0.1051295019602515</v>
+        <v>-0.7</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_TRDBAL.xlsx
+++ b/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_TRDBAL.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1053,6 +1053,14 @@
         <v>-0.7</v>
       </c>
     </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2">
+        <v>45884</v>
+      </c>
+      <c r="B84">
+        <v>-0.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
